--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H2">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I2">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J2">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>39.68128022858722</v>
+        <v>21.239540866372</v>
       </c>
       <c r="R2">
-        <v>357.131522057285</v>
+        <v>191.155867797348</v>
       </c>
       <c r="S2">
-        <v>0.001191175667189359</v>
+        <v>0.0005908373168739309</v>
       </c>
       <c r="T2">
-        <v>0.001191175667189359</v>
+        <v>0.0005908373168739307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H3">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I3">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J3">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>1988.025374602781</v>
+        <v>1439.549868240964</v>
       </c>
       <c r="R3">
-        <v>17892.22837142503</v>
+        <v>12955.94881416867</v>
       </c>
       <c r="S3">
-        <v>0.05967769785501584</v>
+        <v>0.04004511147434213</v>
       </c>
       <c r="T3">
-        <v>0.05967769785501584</v>
+        <v>0.04004511147434212</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H4">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I4">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J4">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>371.7527260046139</v>
+        <v>460.4404788795359</v>
       </c>
       <c r="R4">
-        <v>3345.774534041524</v>
+        <v>4143.964309915823</v>
       </c>
       <c r="S4">
-        <v>0.01115948877851451</v>
+        <v>0.01280844152107144</v>
       </c>
       <c r="T4">
-        <v>0.01115948877851451</v>
+        <v>0.01280844152107144</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H5">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I5">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J5">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>3.469137465421334</v>
+        <v>4.275265393163999</v>
       </c>
       <c r="R5">
-        <v>31.222237188792</v>
+        <v>38.47738853847599</v>
       </c>
       <c r="S5">
-        <v>0.0001041385789757818</v>
+        <v>0.0001189284810680779</v>
       </c>
       <c r="T5">
-        <v>0.0001041385789757818</v>
+        <v>0.0001189284810680778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>392.604462</v>
       </c>
       <c r="I6">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J6">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>242.70437047737</v>
+        <v>179.404055105622</v>
       </c>
       <c r="R6">
-        <v>2184.33933429633</v>
+        <v>1614.636495950598</v>
       </c>
       <c r="S6">
-        <v>0.007285640452317823</v>
+        <v>0.004990626267384779</v>
       </c>
       <c r="T6">
-        <v>0.007285640452317824</v>
+        <v>0.004990626267384777</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>392.604462</v>
       </c>
       <c r="I7">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J7">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
         <v>12159.44758476822</v>
@@ -883,10 +883,10 @@
         <v>109435.0282629139</v>
       </c>
       <c r="S7">
-        <v>0.3650093446079321</v>
+        <v>0.338249090733797</v>
       </c>
       <c r="T7">
-        <v>0.3650093446079321</v>
+        <v>0.3382490907337969</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>392.604462</v>
       </c>
       <c r="I8">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J8">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>2273.76765110505</v>
+        <v>3889.203140758536</v>
       </c>
       <c r="R8">
-        <v>20463.90885994545</v>
+        <v>35002.82826682682</v>
       </c>
       <c r="S8">
-        <v>0.06825527511300934</v>
+        <v>0.1081890782348135</v>
       </c>
       <c r="T8">
-        <v>0.06825527511300934</v>
+        <v>0.1081890782348135</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>392.604462</v>
       </c>
       <c r="I9">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J9">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>21.218439016944</v>
+        <v>36.111889282914</v>
       </c>
       <c r="R9">
-        <v>190.965951152496</v>
+        <v>325.007003546226</v>
       </c>
       <c r="S9">
-        <v>0.0006369473995578509</v>
+        <v>0.0010045533425323</v>
       </c>
       <c r="T9">
-        <v>0.0006369473995578509</v>
+        <v>0.001004553342532299</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H10">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I10">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J10">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N10">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q10">
-        <v>128.5894181100122</v>
+        <v>91.62282544375567</v>
       </c>
       <c r="R10">
-        <v>1157.30476299011</v>
+        <v>824.605428993801</v>
       </c>
       <c r="S10">
-        <v>0.003860071676829027</v>
+        <v>0.002548745506797011</v>
       </c>
       <c r="T10">
-        <v>0.003860071676829028</v>
+        <v>0.00254874550679701</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H11">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I11">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J11">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P11">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q11">
-        <v>6442.307925436916</v>
+        <v>6209.90948557886</v>
       </c>
       <c r="R11">
-        <v>57980.77132893224</v>
+        <v>55889.18537020974</v>
       </c>
       <c r="S11">
-        <v>0.1933889329455948</v>
+        <v>0.1727460250470145</v>
       </c>
       <c r="T11">
-        <v>0.1933889329455948</v>
+        <v>0.1727460250470145</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H12">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I12">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J12">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N12">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q12">
-        <v>1204.685595887239</v>
+        <v>1986.241505361932</v>
       </c>
       <c r="R12">
-        <v>10842.17036298515</v>
+        <v>17876.17354825739</v>
       </c>
       <c r="S12">
-        <v>0.03616295039293096</v>
+        <v>0.05525287053402012</v>
       </c>
       <c r="T12">
-        <v>0.03616295039293096</v>
+        <v>0.05525287053402009</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H13">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I13">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J13">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N13">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O13">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P13">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q13">
-        <v>11.24193487338133</v>
+        <v>18.442578269843</v>
       </c>
       <c r="R13">
-        <v>101.177413860432</v>
+        <v>165.983204428587</v>
       </c>
       <c r="S13">
-        <v>0.0003374669162929902</v>
+        <v>0.0005130319685226219</v>
       </c>
       <c r="T13">
-        <v>0.0003374669162929902</v>
+        <v>0.0005130319685226218</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H14">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I14">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J14">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N14">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q14">
-        <v>139.1414493229028</v>
+        <v>104.265036022745</v>
       </c>
       <c r="R14">
-        <v>1252.273043906125</v>
+        <v>938.3853242047051</v>
       </c>
       <c r="S14">
-        <v>0.00417682866520771</v>
+        <v>0.002900424002336975</v>
       </c>
       <c r="T14">
-        <v>0.004176828665207711</v>
+        <v>0.002900424002336975</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H15">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I15">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J15">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P15">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q15">
-        <v>6970.962890296497</v>
+        <v>7066.759108071065</v>
       </c>
       <c r="R15">
-        <v>62738.66601266847</v>
+        <v>63600.83197263959</v>
       </c>
       <c r="S15">
-        <v>0.2092584040627569</v>
+        <v>0.196581697159837</v>
       </c>
       <c r="T15">
-        <v>0.2092584040627569</v>
+        <v>0.1965816971598369</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H16">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I16">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J16">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N16">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q16">
-        <v>1303.541941894236</v>
+        <v>2260.30512706206</v>
       </c>
       <c r="R16">
-        <v>11731.87747704813</v>
+        <v>20342.74614355854</v>
       </c>
       <c r="S16">
-        <v>0.0391304774795685</v>
+        <v>0.06287671776861031</v>
       </c>
       <c r="T16">
-        <v>0.0391304774795685</v>
+        <v>0.0628767177686103</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H17">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I17">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J17">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N17">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O17">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P17">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q17">
-        <v>12.16444661206667</v>
+        <v>20.987303964315</v>
       </c>
       <c r="R17">
-        <v>109.4800195086</v>
+        <v>188.885735678835</v>
       </c>
       <c r="S17">
-        <v>0.0003651594083065635</v>
+        <v>0.0005838206409784596</v>
       </c>
       <c r="T17">
-        <v>0.0003651594083065636</v>
+        <v>0.0005838206409784595</v>
       </c>
     </row>
   </sheetData>
